--- a/biology/Mycologie/Aphanomyces/Aphanomyces.xlsx
+++ b/biology/Mycologie/Aphanomyces/Aphanomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le genre Aphanomyces, membre des Saprolégniales, comprend différentes espèces d’Oomycètes pathogènes. Le genre Aphanomyces occupe une position originale au sein des Oomycètes. Il est le seul qui, selon les espèces, est responsable de maladies affectant soit des végétaux, soit des animaux. Aphanomyces euteiches est un parasite majeur de différentes légumineuses dont le pois fourrager, la luzerne, le trèfle, et menace la production de protéines d’origine végétale, dont la demande est en constante augmentation.
 Aphanomyces astaci est l'agent responsable de la peste des écrevisses.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 juin 2013) :
 Aphanomyces astaci
 Aphanomyces brassicae
 Aphanomyces cladogamus
@@ -532,7 +546,7 @@
 Aphanomyces raphani
 Aphanomyces scaber
 Aphanomyces stellatus
-Selon Index Fungorum                                      (12 juin 2013)[2] :
+Selon Index Fungorum                                      (12 juin 2013) :
 Aphanomyces acinetophagus A.F. Bartsch &amp; F.T. Wolf 1938
 Aphanomyces amphigynus Cutter 1941
 Aphanomyces apophysii Lacy 1950
@@ -572,12 +586,12 @@
 Aphanomyces sparrowii Cutter 1941
 Aphanomyces stellatus de Bary 1860
 Aphanomyces volgensis Domashova 1974
-Selon ITIS      (12 juin 2013)[3] :
+Selon ITIS      (12 juin 2013) :
 Aphanomyces astaci Schikora
 Aphanomyces euteiches Drechsler
 Aphanomyces laevis de Bary
 Aphanomyces parasiticus
-Selon NCBI  (12 juin 2013)[4] :
+Selon NCBI  (12 juin 2013) :
 Achlya spiralis
 Aphanomyces astaci
 Aphanomyces cladogamus
